--- a/TestData/T1177_Companies_AddFROpportunityOnCompanyDetailPage.xlsx
+++ b/TestData/T1177_Companies_AddFROpportunityOnCompanyDetailPage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FE0FB-2CF3-4397-B489-1D39143ABC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -178,9 +179,6 @@
     <t>Oscar Aarts</t>
   </si>
   <si>
-    <t>Nicole Bicho</t>
-  </si>
-  <si>
     <t>MarketCap</t>
   </si>
   <si>
@@ -194,12 +192,15 @@
   </si>
   <si>
     <t>BUS</t>
+  </si>
+  <si>
+    <t>Drew Koecher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,20 +238,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,68 +524,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -599,180 +590,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -782,32 +773,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
     </row>

--- a/TestData/T1177_Companies_AddFROpportunityOnCompanyDetailPage.xlsx
+++ b/TestData/T1177_Companies_AddFROpportunityOnCompanyDetailPage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FE0FB-2CF3-4397-B489-1D39143ABC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3057A425-59FD-4BE9-BFB7-F549EAD0A791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
     <t>BUS</t>
   </si>
   <si>
-    <t>Drew Koecher</t>
+    <t>Ayati Arvind</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
